--- a/BusinessUtility/excelDataBinding/TestData.xlsx
+++ b/BusinessUtility/excelDataBinding/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumProject\Workspace\Renewbuy\BusinessUtility\excelDataBinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{10F94EDB-6872-4A45-9059-48011134C6BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RB" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="213">
   <si>
     <t>Field Name</t>
   </si>
@@ -164,9 +165,6 @@
   </si>
   <si>
     <t>9012333331</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>2018</t>
@@ -540,118 +538,142 @@
     <t>Previous_Insurer Dropdown Value</t>
   </si>
   <si>
-    <t>Digit</t>
+    <t>MARUTI BALENO 1.6 GLX (1590 cc)(P)</t>
+  </si>
+  <si>
+    <t>Commnets</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Insured Declared Value (IDV)</t>
+  </si>
+  <si>
+    <t>Additional Cover</t>
+  </si>
+  <si>
+    <t>Passenger Cover</t>
+  </si>
+  <si>
+    <t>24x7 Road Side Assistance</t>
+  </si>
+  <si>
+    <t>Return to Invoice Cover</t>
+  </si>
+  <si>
+    <t>Externally fitted CNG kit?</t>
+  </si>
+  <si>
+    <t>Prev Policy Details</t>
+  </si>
+  <si>
+    <t>I don't Have Policy</t>
+  </si>
+  <si>
+    <t>Prev Policy End Date</t>
+  </si>
+  <si>
+    <t>Manufacturing Year</t>
+  </si>
+  <si>
+    <t>Automatic (For best quotes)</t>
+  </si>
+  <si>
+    <t>Set your IDV</t>
+  </si>
+  <si>
+    <t>Company - owned vehicle?</t>
+  </si>
+  <si>
+    <t>Insurance claimed this year</t>
+  </si>
+  <si>
+    <t>Engine Protector</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Key Replacement</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz General Insurance</t>
+  </si>
+  <si>
+    <t>Bharti Axa General Insurance</t>
+  </si>
+  <si>
+    <t>Cholamandalam General Insurance</t>
+  </si>
+  <si>
+    <t>Digit Insurance</t>
+  </si>
+  <si>
+    <t>Future Generali General Insurance</t>
   </si>
   <si>
     <t>HDFC ERGO General Insurance</t>
   </si>
   <si>
-    <t>M/S Shriram General Insurance Company Limited</t>
+    <t>ICICI Lombard General Insurance</t>
+  </si>
+  <si>
+    <t>IFFCO TOKIO General Insurance</t>
+  </si>
+  <si>
+    <t>KOTAK MAHINDRA GENERAL INSURANCE COMPANY LTD</t>
+  </si>
+  <si>
+    <t>L&amp;amp;T General Insurance</t>
+  </si>
+  <si>
+    <t>Liberty Videocon General Insurance</t>
+  </si>
+  <si>
+    <t>Magma HDI General Insurance</t>
+  </si>
+  <si>
+    <t>National Insurance</t>
+  </si>
+  <si>
+    <t>New India Assurance</t>
   </si>
   <si>
     <t>Oriental Insurance</t>
   </si>
   <si>
-    <t>Raheja QBE Insurance</t>
+    <t>Raheja QBE General Insurance</t>
+  </si>
+  <si>
+    <t>Reliance General Insurance</t>
+  </si>
+  <si>
+    <t>Royal Sundaram General Insurance</t>
   </si>
   <si>
     <t>SBI General Insurance</t>
   </si>
   <si>
-    <t>MARUTI BALENO 1.6 GLX (1590 cc)(P)</t>
-  </si>
-  <si>
-    <t>01-MARCH-2016</t>
-  </si>
-  <si>
-    <t>L&amp;amp;T General Insurance</t>
-  </si>
-  <si>
-    <t>Commnets</t>
-  </si>
-  <si>
-    <t>Advanced Search</t>
-  </si>
-  <si>
-    <t>Insured Declared Value (IDV)</t>
-  </si>
-  <si>
-    <t>Additional Cover</t>
-  </si>
-  <si>
-    <t>Passenger Cover</t>
-  </si>
-  <si>
-    <t>24x7 Road Side Assistance</t>
-  </si>
-  <si>
-    <t>Return to Invoice Cover</t>
-  </si>
-  <si>
-    <t>Externally fitted CNG kit?</t>
-  </si>
-  <si>
-    <t>Prev Policy Details</t>
-  </si>
-  <si>
-    <t>I don't Have Policy</t>
-  </si>
-  <si>
-    <t>Prev Policy End Date</t>
-  </si>
-  <si>
-    <t>Manufacturing Year</t>
-  </si>
-  <si>
-    <t>Automatic (For best quotes)</t>
-  </si>
-  <si>
-    <t>Set your IDV</t>
-  </si>
-  <si>
-    <t>Company - owned vehicle?</t>
-  </si>
-  <si>
-    <t>Insurance claimed this year</t>
-  </si>
-  <si>
-    <t>Bajaj Allianz General Insurance</t>
-  </si>
-  <si>
-    <t>BHARTI AXA GENERAL INSURANCE</t>
-  </si>
-  <si>
-    <t>Chola Mandalam Insurance</t>
-  </si>
-  <si>
-    <t>Future Generali Insurance Company</t>
-  </si>
-  <si>
-    <t>ICICI Lombard General Insurance</t>
-  </si>
-  <si>
-    <t>IFFCO TOKIO General Insurance</t>
-  </si>
-  <si>
-    <t>National Insurance</t>
-  </si>
-  <si>
-    <t>New India Assurance</t>
-  </si>
-  <si>
-    <t>Tata AIG Insurance</t>
-  </si>
-  <si>
-    <t>ROYAL SUNDARAM ALLIANCE Insurance</t>
-  </si>
-  <si>
-    <t>RELIANCE General Insurance</t>
+    <t>Shriram General Insurance Company</t>
+  </si>
+  <si>
+    <t>Tata AIG General Insurance</t>
+  </si>
+  <si>
+    <t>United India Insurance</t>
+  </si>
+  <si>
+    <t>Universal Sompo General Insurance</t>
+  </si>
+  <si>
+    <t>01-Month-2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +827,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,7 +887,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1174,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1211,7 @@
     <col min="1" max="1" width="32.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="64" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="3"/>
-    <col min="4" max="4" width="11.28515625" style="3"/>
+    <col min="4" max="4" width="78.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="3"/>
     <col min="6" max="6" width="13.42578125" style="3"/>
     <col min="7" max="7" width="15.5703125" style="3"/>
@@ -1206,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1315,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1298,37 +1323,37 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1367,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1350,13 +1375,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="13">
         <v>1995</v>
       </c>
@@ -1418,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,27 +1479,27 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1482,7 +1507,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7">
         <v>26</v>
       </c>
@@ -1492,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,58 +1528,58 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>72</v>
+      <c r="A44" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="18"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="18"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C48" s="18"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C49" s="18"/>
     </row>
@@ -1563,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,345 +1596,320 @@
         <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="5" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="5" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="5" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="5" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="5" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="5" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="5" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="5" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A73" s="20"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="A74" s="20"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="A75" s="20"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="A76" s="20"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="A77" s="20"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="A78" s="20"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="A79" s="20"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A53:A68"/>
-    <mergeCell ref="A73:A91"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A12:A18"/>
@@ -1919,14 +1919,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B36" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -1947,51 +1944,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1999,55 +1996,55 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,380 +2054,380 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2444,15 +2441,183 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>